--- a/modelos/OBAPBC4421309/OBAPBC4421309_Sell Out_metricas.xlsx
+++ b/modelos/OBAPBC4421309/OBAPBC4421309_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,61 +473,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45026</v>
+        <v>45013</v>
       </c>
       <c r="B2" t="n">
-        <v>363.6559987035424</v>
+        <v>362.8047969239366</v>
       </c>
       <c r="C2" t="n">
-        <v>267.7122083686776</v>
+        <v>267.6837189408578</v>
       </c>
       <c r="D2" t="n">
-        <v>457.1306905602598</v>
+        <v>449.438976601443</v>
       </c>
       <c r="E2" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>360.7646237081978</v>
+        <v>358.645700410545</v>
       </c>
       <c r="C3" t="n">
-        <v>269.2512104694704</v>
+        <v>266.0530591053106</v>
       </c>
       <c r="D3" t="n">
-        <v>453.3128371516424</v>
+        <v>444.6469716751573</v>
       </c>
       <c r="E3" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B4" t="n">
+        <v>356.4508033818911</v>
+      </c>
+      <c r="C4" t="n">
+        <v>266.2169547936786</v>
+      </c>
+      <c r="D4" t="n">
+        <v>452.7338670459301</v>
+      </c>
+      <c r="E4" t="n">
+        <v>350</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="B4" t="n">
-        <v>359.8527883271471</v>
-      </c>
-      <c r="C4" t="n">
-        <v>263.7288929751156</v>
-      </c>
-      <c r="D4" t="n">
-        <v>452.8501271494644</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B5" t="n">
+        <v>356.3964384919637</v>
+      </c>
+      <c r="C5" t="n">
+        <v>267.2988393770286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>443.0744973385764</v>
+      </c>
+      <c r="E5" t="n">
         <v>243</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -542,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,27 +614,53 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8612.730332093108</v>
+      </c>
+      <c r="C2" t="n">
+        <v>92.80479692393658</v>
+      </c>
+      <c r="D2" t="n">
+        <v>92.80479692393658</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.343721470088654</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.343721470088654</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2933125582329988</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>4776.68584602338</v>
-      </c>
-      <c r="C2" t="n">
-        <v>69.11357208264799</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.42447024629575</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1937360688803366</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.06957646677512461</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1617312461870361</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="B3" t="n">
+        <v>4416.009090244444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>66.45305929936141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.16431409479996</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1799743907951768</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05484029532513245</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1500026702255011</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6666666666666667</v>
       </c>
     </row>

--- a/modelos/OBAPBC4421309/OBAPBC4421309_Sell Out_metricas.xlsx
+++ b/modelos/OBAPBC4421309/OBAPBC4421309_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45013</v>
       </c>
       <c r="B2" t="n">
-        <v>362.8047969239366</v>
+        <v>362.804796923936</v>
       </c>
       <c r="C2" t="n">
-        <v>267.6837189408578</v>
+        <v>276.33151165783</v>
       </c>
       <c r="D2" t="n">
-        <v>449.438976601443</v>
+        <v>451.2713436779041</v>
       </c>
       <c r="E2" t="n">
         <v>270</v>
@@ -496,13 +496,13 @@
         <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>358.645700410545</v>
+        <v>358.6457004098853</v>
       </c>
       <c r="C3" t="n">
-        <v>266.0530591053106</v>
+        <v>270.2918632921263</v>
       </c>
       <c r="D3" t="n">
-        <v>444.6469716751573</v>
+        <v>450.2268580158135</v>
       </c>
       <c r="E3" t="n">
         <v>340</v>
@@ -516,13 +516,13 @@
         <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>356.4508033818911</v>
+        <v>356.4508033818925</v>
       </c>
       <c r="C4" t="n">
-        <v>266.2169547936786</v>
+        <v>269.9109184834659</v>
       </c>
       <c r="D4" t="n">
-        <v>452.7338670459301</v>
+        <v>445.0344830626109</v>
       </c>
       <c r="E4" t="n">
         <v>350</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>356.3964384919637</v>
+        <v>356.3964384919538</v>
       </c>
       <c r="C5" t="n">
-        <v>267.2988393770286</v>
+        <v>272.1787048742721</v>
       </c>
       <c r="D5" t="n">
-        <v>443.0744973385764</v>
+        <v>444.6814781146862</v>
       </c>
       <c r="E5" t="n">
         <v>243</v>
@@ -617,25 +617,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8612.730332093108</v>
+        <v>8612.730332092991</v>
       </c>
       <c r="C2" t="n">
-        <v>92.80479692393658</v>
+        <v>92.80479692393595</v>
       </c>
       <c r="D2" t="n">
-        <v>92.80479692393658</v>
+        <v>92.80479692393595</v>
       </c>
       <c r="E2" t="n">
-        <v>0.343721470088654</v>
+        <v>0.3437214700886517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.343721470088654</v>
+        <v>0.3437214700886517</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2933125582329988</v>
+        <v>0.2933125582329971</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>4416.009090244444</v>
+        <v>4416.009090235499</v>
       </c>
       <c r="C3" t="n">
-        <v>66.45305929936141</v>
+        <v>66.45305929929411</v>
       </c>
       <c r="D3" t="n">
-        <v>46.16431409479996</v>
+        <v>46.16431409457719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1799743907951768</v>
+        <v>0.1799743907945177</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05484029532513245</v>
+        <v>0.05484029532319208</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1500026702255011</v>
+        <v>0.1500026702248806</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666667</v>

--- a/modelos/OBAPBC4421309/OBAPBC4421309_Sell Out_metricas.xlsx
+++ b/modelos/OBAPBC4421309/OBAPBC4421309_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>362.804796923936</v>
       </c>
       <c r="C2" t="n">
-        <v>276.33151165783</v>
+        <v>279.5959501310819</v>
       </c>
       <c r="D2" t="n">
-        <v>451.2713436779041</v>
+        <v>453.0208299181719</v>
       </c>
       <c r="E2" t="n">
         <v>270</v>
@@ -499,10 +499,10 @@
         <v>358.6457004098853</v>
       </c>
       <c r="C3" t="n">
-        <v>270.2918632921263</v>
+        <v>266.6785368822515</v>
       </c>
       <c r="D3" t="n">
-        <v>450.2268580158135</v>
+        <v>449.2546943990874</v>
       </c>
       <c r="E3" t="n">
         <v>340</v>
@@ -519,10 +519,10 @@
         <v>356.4508033818925</v>
       </c>
       <c r="C4" t="n">
-        <v>269.9109184834659</v>
+        <v>270.0529312361662</v>
       </c>
       <c r="D4" t="n">
-        <v>445.0344830626109</v>
+        <v>445.6466936336254</v>
       </c>
       <c r="E4" t="n">
         <v>350</v>
@@ -539,10 +539,10 @@
         <v>356.3964384919538</v>
       </c>
       <c r="C5" t="n">
-        <v>272.1787048742721</v>
+        <v>270.6147021067658</v>
       </c>
       <c r="D5" t="n">
-        <v>444.6814781146862</v>
+        <v>445.1029629144095</v>
       </c>
       <c r="E5" t="n">
         <v>243</v>
